--- a/data/trans_bre/P16B12-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16B12-Provincia-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16B12-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16B12-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -614,22 +614,22 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,96</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,48%</t>
         </is>
       </c>
     </row>
@@ -652,7 +652,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 33,39</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 50,12</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>1,0</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="E6" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -722,7 +722,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,56; 11,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -737,7 +737,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,58; 12,97</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>-4,68</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="E8" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,68%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -802,7 +802,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,34; 0,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -817,7 +817,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,34; 0,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>-4,94</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>-1,77</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,94%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,77%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -882,12 +882,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,39; 0,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,28; 0,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -897,12 +897,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,39; 0,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,28; 0,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -939,17 +939,17 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1019,17 +1019,17 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>-0,21</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>-2,0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,21%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,0%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1122,12 +1122,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,77; 4,05</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,15; 0,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1137,12 +1137,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,81; 4,23</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,15; 0,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1164,32 +1164,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>1,53</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,44</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,44%</t>
         </is>
       </c>
     </row>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,37; 8,7</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1212,12 +1212,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,6; 2,82</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,64; 9,52</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,67; 2,9</t>
         </is>
       </c>
     </row>
@@ -1244,32 +1244,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,67</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,52%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,67%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,34%</t>
         </is>
       </c>
     </row>
@@ -1282,32 +1282,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,69; 2,17</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,4; 0,0</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,07; 1,66</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,72; 2,25</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,4; 0,0</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,0; 1,75</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16B12-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16B12-Provincia-trans_bre.xlsx
@@ -609,7 +609,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -624,7 +624,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -849,7 +849,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,77</t>
+          <t>-2,8</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -864,7 +864,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-1,77%</t>
+          <t>-2,8%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -887,7 +887,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-9,28; 0,0</t>
+          <t>-14,49; 0,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -902,7 +902,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-9,28; 0,0</t>
+          <t>-14,49; 0,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">

--- a/data/trans_bre/P16B12-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16B12-Provincia-trans_bre.xlsx
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -652,7 +652,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 33,39</t>
+          <t>0,0; 28,29</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -667,14 +667,14 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 50,12</t>
+          <t>0,0; 39,45</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -722,7 +722,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 11,54</t>
+          <t>-5,44; 12,77</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -737,7 +737,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,58; 12,97</t>
+          <t>-5,46; 14,87</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -802,7 +802,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-24,34; 0,0</t>
+          <t>-19,42; 0,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -817,7 +817,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-24,34; 0,0</t>
+          <t>-19,42; 0,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -882,12 +882,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-23,39; 0,0</t>
+          <t>-25,08; 0,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-14,49; 0,0</t>
+          <t>-11,73; 0,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -897,12 +897,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-23,39; 0,0</t>
+          <t>-25,08; 0,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-14,49; 0,0</t>
+          <t>-11,73; 0,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1074,7 +1074,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1122,12 +1122,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,77; 4,05</t>
+          <t>-8,62; 4,15</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-11,15; 0,0</t>
+          <t>-12,1; 0,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1137,12 +1137,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,81; 4,23</t>
+          <t>-8,63; 4,32</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-11,15; 0,0</t>
+          <t>-12,1; 0,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-6,37; 8,7</t>
+          <t>-6,51; 8,16</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1212,12 +1212,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-5,6; 2,82</t>
+          <t>-7,53; 2,76</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-6,64; 9,52</t>
+          <t>-6,79; 8,9</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-5,67; 2,9</t>
+          <t>-7,65; 2,83</t>
         </is>
       </c>
     </row>
@@ -1282,32 +1282,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 2,17</t>
+          <t>-3,44; 2,31</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 0,0</t>
+          <t>-2,38; 0,0</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 1,66</t>
+          <t>-1,06; 2,09</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 2,25</t>
+          <t>-3,49; 2,38</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 0,0</t>
+          <t>-2,38; 0,0</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 1,75</t>
+          <t>-1,0; 2,14</t>
         </is>
       </c>
     </row>
